--- a/data/trans_orig/P21B-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P21B-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5610</v>
+        <v>4835</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008669216528337621</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05123093277517017</v>
+        <v>0.04415262133859069</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5603</v>
+        <v>5435</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005997544278298562</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01966565710805004</v>
+        <v>0.0190753377873428</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -786,19 +786,19 @@
         <v>2658</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7554</v>
+        <v>7857</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00673932483380224</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001876398890297718</v>
+        <v>0.001887724939614146</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01915289202143753</v>
+        <v>0.01992067534751766</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4129</v>
+        <v>4485</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008079773060703534</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03770718499812727</v>
+        <v>0.04095817196086159</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -836,19 +836,19 @@
         <v>6300</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2272</v>
+        <v>2394</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12937</v>
+        <v>12389</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02211043696518592</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007975169969700586</v>
+        <v>0.008400911328331954</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04540639084969755</v>
+        <v>0.04348232216365797</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -857,19 +857,19 @@
         <v>7184</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3008</v>
+        <v>3356</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14856</v>
+        <v>14510</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01821487168205652</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007626439096492675</v>
+        <v>0.008507773372813362</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03766426254721386</v>
+        <v>0.03678785022042231</v>
       </c>
     </row>
     <row r="6">
@@ -899,19 +899,19 @@
         <v>3935</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9616</v>
+        <v>9819</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01381116575910143</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003775149022964944</v>
+        <v>0.003742709754714</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03375205070055438</v>
+        <v>0.03446279934818173</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -920,19 +920,19 @@
         <v>3935</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1065</v>
+        <v>1077</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9628</v>
+        <v>9657</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.009976543376513193</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002700815292992539</v>
+        <v>0.00273144719494154</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02440942749663448</v>
+        <v>0.02448494889982293</v>
       </c>
     </row>
     <row r="7">
@@ -949,19 +949,19 @@
         <v>23542</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15261</v>
+        <v>15803</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32875</v>
+        <v>32688</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2149759556502716</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1393562595591173</v>
+        <v>0.1443065963808904</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3002012841253289</v>
+        <v>0.2984920774716919</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -970,19 +970,19 @@
         <v>63201</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49642</v>
+        <v>49890</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78432</v>
+        <v>77172</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2218265472677289</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1742335305651226</v>
+        <v>0.1751071031846563</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2752822685519747</v>
+        <v>0.2708601005967587</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>85</v>
@@ -991,19 +991,19 @@
         <v>86744</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71744</v>
+        <v>72078</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>103679</v>
+        <v>103785</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2199245042100701</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.181895042840398</v>
+        <v>0.1827414269053029</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2628620628315112</v>
+        <v>0.2631294246271869</v>
       </c>
     </row>
     <row r="8">
@@ -1020,19 +1020,19 @@
         <v>84135</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>74513</v>
+        <v>74976</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>92569</v>
+        <v>92128</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7682750547606872</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6804188918041579</v>
+        <v>0.6846459072461765</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8452950457781243</v>
+        <v>0.8412639326648962</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>203</v>
@@ -1041,19 +1041,19 @@
         <v>209769</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>193283</v>
+        <v>193174</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>223564</v>
+        <v>222831</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7362543057296852</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6783890125183064</v>
+        <v>0.6780095213013606</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7846721635721027</v>
+        <v>0.7821002038119295</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>286</v>
@@ -1062,19 +1062,19 @@
         <v>293904</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>275838</v>
+        <v>276119</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>309733</v>
+        <v>309157</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7451447558975579</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6993431011327845</v>
+        <v>0.7000542497108546</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.785276849855789</v>
+        <v>0.7838167701888888</v>
       </c>
     </row>
     <row r="9">
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3946</v>
+        <v>5027</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004935163995677586</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02167655144167561</v>
+        <v>0.02761242463031987</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5049</v>
+        <v>4504</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002171487866768428</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01220191668596649</v>
+        <v>0.01088515062832572</v>
       </c>
     </row>
     <row r="11">
@@ -1229,19 +1229,19 @@
         <v>4663</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1020</v>
+        <v>1756</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11180</v>
+        <v>12547</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02561105899091562</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005604303879689475</v>
+        <v>0.009643916724865125</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06141053707507383</v>
+        <v>0.06891584575948285</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4821</v>
+        <v>5737</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004129760265343994</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02080774488936363</v>
+        <v>0.02476115043084756</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1271,19 +1271,19 @@
         <v>5620</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1912</v>
+        <v>1952</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12870</v>
+        <v>12985</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01358160007975779</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004620502016849479</v>
+        <v>0.004717236016453895</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03110399057330411</v>
+        <v>0.0313828970999078</v>
       </c>
     </row>
     <row r="12">
@@ -1300,19 +1300,19 @@
         <v>3930</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1072</v>
+        <v>1032</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9495</v>
+        <v>9297</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02158860650125973</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005889500343216151</v>
+        <v>0.005670398697172402</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0521548656466522</v>
+        <v>0.05106673747943782</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10273</v>
+        <v>9080</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01106077811960412</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04433480686685983</v>
+        <v>0.03918796183108735</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -1342,19 +1342,19 @@
         <v>6493</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2711</v>
+        <v>1972</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12967</v>
+        <v>13731</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01569305611770268</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.006551966836865164</v>
+        <v>0.004766555395182811</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03134047813168023</v>
+        <v>0.03318655035488876</v>
       </c>
     </row>
     <row r="13">
@@ -1371,19 +1371,19 @@
         <v>51347</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39668</v>
+        <v>40391</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65005</v>
+        <v>64041</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2820395577960366</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2178893327265233</v>
+        <v>0.2218587755670079</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3570616836028356</v>
+        <v>0.351764566349365</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -1392,19 +1392,19 @@
         <v>74094</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>61456</v>
+        <v>61438</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91004</v>
+        <v>89227</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3197794962367924</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2652350103162568</v>
+        <v>0.2651566940194743</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3927608526066567</v>
+        <v>0.3850916353830031</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>121</v>
@@ -1413,19 +1413,19 @@
         <v>125441</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106488</v>
+        <v>107960</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>145574</v>
+        <v>144015</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3031738031963047</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2573673850758973</v>
+        <v>0.2609232096931429</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3518329260504866</v>
+        <v>0.3480650933071188</v>
       </c>
     </row>
     <row r="14">
@@ -1442,19 +1442,19 @@
         <v>121218</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108100</v>
+        <v>107896</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>134068</v>
+        <v>133724</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6658256127161104</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5937747703481124</v>
+        <v>0.592652199349309</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.736413487078887</v>
+        <v>0.7345236964638726</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>148</v>
@@ -1463,19 +1463,19 @@
         <v>154090</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>137003</v>
+        <v>139304</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>167407</v>
+        <v>167705</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6650299653782595</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5912852445042949</v>
+        <v>0.6012136337278775</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7225027571898441</v>
+        <v>0.723788397297905</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>270</v>
@@ -1484,19 +1484,19 @@
         <v>275308</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>254274</v>
+        <v>255734</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>293940</v>
+        <v>295252</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6653800527394664</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6145457297980776</v>
+        <v>0.6180721989317443</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7104120689418395</v>
+        <v>0.713582127307149</v>
       </c>
     </row>
     <row r="15">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4718</v>
+        <v>3674</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004689991560801444</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02639164108717406</v>
+        <v>0.02055074297138239</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5911</v>
+        <v>7054</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005001162100509594</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02504726346834438</v>
+        <v>0.02988880032721882</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7720</v>
+        <v>7437</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004867047313950964</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01861247678447502</v>
+        <v>0.01793107928605804</v>
       </c>
     </row>
     <row r="17">
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7212</v>
+        <v>7183</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01099654197336783</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04034570194143951</v>
+        <v>0.04018075864160789</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1680,19 +1680,19 @@
         <v>4294</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1129</v>
+        <v>993</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10051</v>
+        <v>10007</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01819612364740424</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004783445222654319</v>
+        <v>0.004205568890473223</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04258916652404122</v>
+        <v>0.04240055422151303</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -1701,19 +1701,19 @@
         <v>6260</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2316</v>
+        <v>2328</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13365</v>
+        <v>13956</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0150930973762462</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005584504001513432</v>
+        <v>0.005613161221064096</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0322237171101833</v>
+        <v>0.03364772866939107</v>
       </c>
     </row>
     <row r="18">
@@ -1730,19 +1730,19 @@
         <v>7205</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2871</v>
+        <v>2695</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15870</v>
+        <v>15565</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04030703993298793</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01605871156990959</v>
+        <v>0.0150740793527773</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08877589369177788</v>
+        <v>0.08706872161358245</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         <v>7205</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2715</v>
+        <v>2834</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>15449</v>
+        <v>16970</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01737237099146007</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.006544690433844816</v>
+        <v>0.006832182160984404</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03724856559375352</v>
+        <v>0.04091516207628455</v>
       </c>
     </row>
     <row r="19">
@@ -1793,19 +1793,19 @@
         <v>43070</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32325</v>
+        <v>32640</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>56149</v>
+        <v>55584</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2409291751953668</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1808227211187208</v>
+        <v>0.1825868067969561</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3140954022826665</v>
+        <v>0.3109335763882856</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>75</v>
@@ -1814,19 +1814,19 @@
         <v>74025</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60965</v>
+        <v>59430</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>88931</v>
+        <v>88035</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3136606662120265</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.258323749970127</v>
+        <v>0.251819588693968</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.376824630082401</v>
+        <v>0.3730271791187876</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>117</v>
@@ -1835,19 +1835,19 @@
         <v>117094</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>98567</v>
+        <v>99610</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>135020</v>
+        <v>135009</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2823133272160568</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2376450362027982</v>
+        <v>0.2401596419107372</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3255326501864711</v>
+        <v>0.3255053551280326</v>
       </c>
     </row>
     <row r="20">
@@ -1864,19 +1864,19 @@
         <v>125686</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>112794</v>
+        <v>112761</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>137519</v>
+        <v>136512</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.703077251337476</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6309605121814406</v>
+        <v>0.6307780250724696</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7692752087090643</v>
+        <v>0.7636373403492123</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>154</v>
@@ -1885,19 +1885,19 @@
         <v>156503</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>141232</v>
+        <v>142865</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>169903</v>
+        <v>171551</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6631420480400597</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5984373418118689</v>
+        <v>0.6053544178554348</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.719922497057112</v>
+        <v>0.7269061925548902</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>276</v>
@@ -1906,19 +1906,19 @@
         <v>282188</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>263253</v>
+        <v>263180</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>301667</v>
+        <v>300320</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6803541571022859</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6347016820639907</v>
+        <v>0.6345253706600571</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7273197411091126</v>
+        <v>0.724071918643686</v>
       </c>
     </row>
     <row r="21">
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5477</v>
+        <v>7058</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0221439156376196</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06814513959887612</v>
+        <v>0.08782162106449408</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4329</v>
+        <v>4256</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01441153709484966</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07327772628745194</v>
+        <v>0.07204484215589778</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -2099,19 +2099,19 @@
         <v>2631</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>8157</v>
+        <v>7224</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01886819566293154</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006105014264750856</v>
+        <v>0.006098089719683051</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05850239408559489</v>
+        <v>0.05181052896343859</v>
       </c>
     </row>
     <row r="24">
@@ -2141,19 +2141,19 @@
         <v>3698</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8589</v>
+        <v>8638</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06260192288020829</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01577366470088341</v>
+        <v>0.01576616069903366</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1454092054228635</v>
+        <v>0.1462259996023525</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2162,19 +2162,19 @@
         <v>3698</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8839</v>
+        <v>8937</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02652047725008558</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006707778070433942</v>
+        <v>0.006723571595457192</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06339347716348197</v>
+        <v>0.06409007820861087</v>
       </c>
     </row>
     <row r="25">
@@ -2191,19 +2191,19 @@
         <v>19487</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12080</v>
+        <v>11939</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28029</v>
+        <v>28098</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2424738815388291</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1503068479401514</v>
+        <v>0.1485572330802765</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3487638871847447</v>
+        <v>0.3496294955818716</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -2212,19 +2212,19 @@
         <v>15588</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9331</v>
+        <v>9675</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22471</v>
+        <v>22632</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2638896109509455</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1579687351410304</v>
+        <v>0.1637930074993433</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3804133061544582</v>
+        <v>0.3831321311242441</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -2233,19 +2233,19 @@
         <v>35075</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>25286</v>
+        <v>25925</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45231</v>
+        <v>46064</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2515463722633526</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1813401754236287</v>
+        <v>0.1859259943078236</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3243816173762179</v>
+        <v>0.3303539772717362</v>
       </c>
     </row>
     <row r="26">
@@ -2262,19 +2262,19 @@
         <v>59100</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>50848</v>
+        <v>50021</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>66968</v>
+        <v>66542</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7353822028235513</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6327092510670481</v>
+        <v>0.6224183682481536</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8332895721964078</v>
+        <v>0.8279918116041279</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>38</v>
@@ -2283,19 +2283,19 @@
         <v>38933</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>31350</v>
+        <v>31454</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45716</v>
+        <v>45376</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6590969290739965</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5307200698723892</v>
+        <v>0.5324864605606604</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7739285652458427</v>
+        <v>0.768165973997895</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>93</v>
@@ -2304,19 +2304,19 @@
         <v>98033</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>86147</v>
+        <v>85369</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>107726</v>
+        <v>107805</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7030649548236303</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6178202662284431</v>
+        <v>0.6122419654909551</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.772574874013143</v>
+        <v>0.7731457399212013</v>
       </c>
     </row>
     <row r="27">
@@ -2408,19 +2408,19 @@
         <v>2686</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7387</v>
+        <v>7276</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004877910706906258</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001522116457244516</v>
+        <v>0.001513353441790255</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01341321131539701</v>
+        <v>0.01321276788992223</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2429,19 +2429,19 @@
         <v>2889</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7914</v>
+        <v>8721</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003559323077662494</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0009133069322461815</v>
+        <v>0.0009120041455842998</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.009750066806970105</v>
+        <v>0.01074382672294568</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -2450,19 +2450,19 @@
         <v>5575</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2201</v>
+        <v>2405</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12334</v>
+        <v>11461</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.004092315563296423</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001615438572798783</v>
+        <v>0.001765638183550475</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.009052857475098895</v>
+        <v>0.008412517421683714</v>
       </c>
     </row>
     <row r="29">
@@ -2479,19 +2479,19 @@
         <v>9293</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4510</v>
+        <v>4122</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17070</v>
+        <v>17204</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0168747423155216</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00818958008465741</v>
+        <v>0.007484466231245498</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03099776305728241</v>
+        <v>0.03124059402597635</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -2500,19 +2500,19 @@
         <v>12402</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6949</v>
+        <v>6481</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>21270</v>
+        <v>21195</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01527931392829982</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.008561500977008075</v>
+        <v>0.007984747161880764</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02620457321891685</v>
+        <v>0.02611159443012252</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>21</v>
@@ -2521,19 +2521,19 @@
         <v>21695</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>13580</v>
+        <v>13669</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>32556</v>
+        <v>33171</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01592420951422607</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009968158221807135</v>
+        <v>0.01003323845228969</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02389620909747367</v>
+        <v>0.02434750855796039</v>
       </c>
     </row>
     <row r="30">
@@ -2550,19 +2550,19 @@
         <v>11136</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5674</v>
+        <v>5567</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19665</v>
+        <v>20566</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02022127515296058</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01030240247106956</v>
+        <v>0.01010931266307678</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03571009143442033</v>
+        <v>0.03734531731322174</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -2571,19 +2571,19 @@
         <v>10196</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4792</v>
+        <v>5334</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18731</v>
+        <v>19379</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0125611339874886</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.00590419682067596</v>
+        <v>0.006571370895821739</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02307594929714424</v>
+        <v>0.02387478133042377</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>20</v>
@@ -2592,19 +2592,19 @@
         <v>21332</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>12756</v>
+        <v>12930</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>32013</v>
+        <v>32965</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01565747554988689</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.009363113315643941</v>
+        <v>0.009490626626494336</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0234979290096534</v>
+        <v>0.02419616724824881</v>
       </c>
     </row>
     <row r="31">
@@ -2621,19 +2621,19 @@
         <v>137445</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>119347</v>
+        <v>116853</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>159051</v>
+        <v>159738</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2495843108325478</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.216720715379223</v>
+        <v>0.2121916353158907</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2888176247005845</v>
+        <v>0.2900647483845034</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>223</v>
@@ -2642,19 +2642,19 @@
         <v>226908</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>202349</v>
+        <v>200268</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>253529</v>
+        <v>252824</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2795502448798958</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.249292911794059</v>
+        <v>0.2467296320127746</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3123469345816808</v>
+        <v>0.3114782565013063</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>358</v>
@@ -2663,19 +2663,19 @@
         <v>364354</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>331448</v>
+        <v>330869</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>395592</v>
+        <v>395754</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2674375742328957</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2432848060937498</v>
+        <v>0.2428597033232428</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2903664152387577</v>
+        <v>0.2904851755902326</v>
       </c>
     </row>
     <row r="32">
@@ -2692,19 +2692,19 @@
         <v>390137</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>368707</v>
+        <v>367545</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>410541</v>
+        <v>412305</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7084417609920638</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6695286665840623</v>
+        <v>0.6674183266976709</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7454927044015607</v>
+        <v>0.7486963964873874</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>543</v>
@@ -2713,19 +2713,19 @@
         <v>559295</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>530325</v>
+        <v>531454</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>583743</v>
+        <v>584421</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6890499841266532</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6533593246187309</v>
+        <v>0.6547500493099183</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7191693338140797</v>
+        <v>0.7200057270558097</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>925</v>
@@ -2734,19 +2734,19 @@
         <v>949432</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>916974</v>
+        <v>917382</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>983863</v>
+        <v>985117</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.696888425139695</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6730640496116068</v>
+        <v>0.6733632460931233</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7221605058524737</v>
+        <v>0.7230808812983028</v>
       </c>
     </row>
     <row r="33">
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4073</v>
+        <v>4718</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003885795928536446</v>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01727656133929322</v>
+        <v>0.02001293007910146</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5948</v>
+        <v>4595</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001453921861796369</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009439186824758227</v>
+        <v>0.007292891087434655</v>
       </c>
     </row>
     <row r="5">
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4625</v>
+        <v>4792</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.003804515245397633</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01961884576674713</v>
+        <v>0.0203241310293822</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -3162,19 +3162,19 @@
         <v>3842</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>967</v>
+        <v>981</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8849</v>
+        <v>10549</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009743339922040215</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00245303790928568</v>
+        <v>0.002487578130136817</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02243877573755138</v>
+        <v>0.02675066236920925</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -3183,19 +3183,19 @@
         <v>4739</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1855</v>
+        <v>1808</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10602</v>
+        <v>10780</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007521250242205034</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002944029025450605</v>
+        <v>0.002868759341388259</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01682510710238911</v>
+        <v>0.01710869717674454</v>
       </c>
     </row>
     <row r="6">
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7262</v>
+        <v>7249</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00925292355706407</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03080047921520554</v>
+        <v>0.03074624962659514</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7588</v>
+        <v>7990</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005565973150015315</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01924157173697602</v>
+        <v>0.02026049786708461</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -3254,19 +3254,19 @@
         <v>4376</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>967</v>
+        <v>1214</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9811</v>
+        <v>11977</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006945494334028241</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001534973725044217</v>
+        <v>0.00192740570172794</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01556993504368445</v>
+        <v>0.01900744528664772</v>
       </c>
     </row>
     <row r="7">
@@ -3283,19 +3283,19 @@
         <v>85501</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>70299</v>
+        <v>70890</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100710</v>
+        <v>102358</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3626544074550619</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2981738436243012</v>
+        <v>0.3006836635788384</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4271644150897765</v>
+        <v>0.4341554401780224</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>121</v>
@@ -3304,19 +3304,19 @@
         <v>130840</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>111629</v>
+        <v>112515</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>150880</v>
+        <v>153099</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.331789772477051</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2830722934967481</v>
+        <v>0.2853190669333199</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3826062545239615</v>
+        <v>0.3882332543970393</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>199</v>
@@ -3325,19 +3325,19 @@
         <v>216341</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>190426</v>
+        <v>192456</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>239653</v>
+        <v>239493</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3433381832469899</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3022100106898932</v>
+        <v>0.3054314990599589</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3803340554930539</v>
+        <v>0.3800807510122184</v>
       </c>
     </row>
     <row r="8">
@@ -3354,19 +3354,19 @@
         <v>146269</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>130185</v>
+        <v>130145</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>161207</v>
+        <v>161742</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6204023578139399</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5521830481484703</v>
+        <v>0.5520127032433507</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6837660133507372</v>
+        <v>0.6860328300801523</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>239</v>
@@ -3375,19 +3375,19 @@
         <v>257470</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>235967</v>
+        <v>234378</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>276593</v>
+        <v>275808</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6529009144508935</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5983736602356635</v>
+        <v>0.5943452741269205</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7013960517086364</v>
+        <v>0.699404838988548</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>380</v>
@@ -3396,19 +3396,19 @@
         <v>403738</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>379207</v>
+        <v>378927</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>428621</v>
+        <v>428306</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6407411503149805</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6018090889107173</v>
+        <v>0.6013657666545513</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6802310286094994</v>
+        <v>0.6797312549633702</v>
       </c>
     </row>
     <row r="9">
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5500</v>
+        <v>5338</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005300456473323324</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02685860439767127</v>
+        <v>0.02606397930762315</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6768</v>
+        <v>4974</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002232117686619061</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01391782804321221</v>
+        <v>0.01022785493168576</v>
       </c>
     </row>
     <row r="11">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5681</v>
+        <v>5140</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004951662492416327</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02774036143021532</v>
+        <v>0.02510020423242857</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -3584,19 +3584,19 @@
         <v>4923</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14704</v>
+        <v>14591</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01748787745531225</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003445388146482821</v>
+        <v>0.003458706932019131</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05223307894520986</v>
+        <v>0.05182873470808127</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -3605,19 +3605,19 @@
         <v>5937</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1962</v>
+        <v>1949</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15340</v>
+        <v>13645</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01220865154660595</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004034846958373047</v>
+        <v>0.004007646263289168</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03154322389959193</v>
+        <v>0.02805762354163021</v>
       </c>
     </row>
     <row r="12">
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5550</v>
+        <v>4433</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.004800206215719305</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02709924558972006</v>
+        <v>0.02164603035562143</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -3655,19 +3655,19 @@
         <v>3861</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>993</v>
+        <v>975</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9532</v>
+        <v>9628</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01371347501487498</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00352596179937415</v>
+        <v>0.003463938318481013</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03385805031488149</v>
+        <v>0.03420209964284229</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -3676,19 +3676,19 @@
         <v>4844</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1938</v>
+        <v>1916</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11492</v>
+        <v>10768</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.009959936988043303</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003984608445518383</v>
+        <v>0.00393890409348941</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02363090343271374</v>
+        <v>0.02214163573931038</v>
       </c>
     </row>
     <row r="13">
@@ -3705,19 +3705,19 @@
         <v>78117</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63870</v>
+        <v>64095</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>93883</v>
+        <v>93436</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3814398152670935</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3118722260727403</v>
+        <v>0.3129709200904975</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.458427081410868</v>
+        <v>0.4562448038990582</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -3726,19 +3726,19 @@
         <v>79659</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64993</v>
+        <v>65277</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96040</v>
+        <v>95951</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2829658342366508</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2308687886259701</v>
+        <v>0.2318770566805773</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3411524217139102</v>
+        <v>0.3408380360096406</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -3747,19 +3747,19 @@
         <v>157776</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>136350</v>
+        <v>136701</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>179051</v>
+        <v>181164</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3244350012482281</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2803769455491664</v>
+        <v>0.2810991034956024</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3681820546493198</v>
+        <v>0.3725275427235316</v>
       </c>
     </row>
     <row r="14">
@@ -3776,19 +3776,19 @@
         <v>123595</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>107194</v>
+        <v>108045</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>138015</v>
+        <v>137390</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6035078595514475</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5234228488012261</v>
+        <v>0.5275774842535291</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.673923397745077</v>
+        <v>0.6708690254594524</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>179</v>
@@ -3797,19 +3797,19 @@
         <v>193073</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>177266</v>
+        <v>176519</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>208946</v>
+        <v>208551</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.685832813293162</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6296837165783081</v>
+        <v>0.6270301902622614</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7422177146206449</v>
+        <v>0.740812450249015</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>293</v>
@@ -3818,19 +3818,19 @@
         <v>316668</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>294828</v>
+        <v>291867</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>338754</v>
+        <v>338493</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6511642925305036</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6062556257603957</v>
+        <v>0.6001673193252411</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6965802040846351</v>
+        <v>0.6960445085130161</v>
       </c>
     </row>
     <row r="15">
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5002</v>
+        <v>4036</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.00548849814852208</v>
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02790929713071446</v>
+        <v>0.02252134314261359</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -3990,19 +3990,19 @@
         <v>3997</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>945</v>
+        <v>1186</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9538</v>
+        <v>9235</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02066460248060065</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004885915227737066</v>
+        <v>0.006131748984549192</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04931204828785337</v>
+        <v>0.04774778607350198</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -4011,19 +4011,19 @@
         <v>4981</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1888</v>
+        <v>1898</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10926</v>
+        <v>11137</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01336582152306103</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005066897909624995</v>
+        <v>0.005093960680887005</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02932189750888363</v>
+        <v>0.02988846442307156</v>
       </c>
     </row>
     <row r="18">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4928</v>
+        <v>4821</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.005283735292605497</v>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02750060784331077</v>
+        <v>0.02690125224457907</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -4061,19 +4061,19 @@
         <v>5659</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1911</v>
+        <v>1895</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13307</v>
+        <v>12985</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02925648515921588</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.009882137529334241</v>
+        <v>0.00979830306776216</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06879923620051173</v>
+        <v>0.06713392151908761</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -4082,19 +4082,19 @@
         <v>6606</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2724</v>
+        <v>2839</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>14388</v>
+        <v>14423</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01772705399574999</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007311335576316595</v>
+        <v>0.007618023908386024</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03861143504800642</v>
+        <v>0.03870477948129491</v>
       </c>
     </row>
     <row r="19">
@@ -4111,19 +4111,19 @@
         <v>62385</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49500</v>
+        <v>50416</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>76768</v>
+        <v>77152</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3481037557304541</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2762037743192463</v>
+        <v>0.2813198879818926</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4283568792726712</v>
+        <v>0.4305011302364468</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -4132,19 +4132,19 @@
         <v>60864</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>49184</v>
+        <v>47874</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>74859</v>
+        <v>75628</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3146723923624983</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2542855736187088</v>
+        <v>0.2475149424898946</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3870319566115816</v>
+        <v>0.3910036348056923</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>117</v>
@@ -4153,19 +4153,19 @@
         <v>123249</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>106414</v>
+        <v>106261</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>142351</v>
+        <v>142632</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3307508399663969</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2855742688197566</v>
+        <v>0.2851628677433374</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.382013169662623</v>
+        <v>0.3827682418240583</v>
       </c>
     </row>
     <row r="20">
@@ -4182,19 +4182,19 @@
         <v>114898</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>100277</v>
+        <v>100322</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>127425</v>
+        <v>127126</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6411240108284183</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5595352940627966</v>
+        <v>0.559791118340629</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.711019909993736</v>
+        <v>0.7093557156984119</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>114</v>
@@ -4203,19 +4203,19 @@
         <v>122900</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>109168</v>
+        <v>108059</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>135691</v>
+        <v>136832</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6354065199976852</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.564409822585094</v>
+        <v>0.5586798392204428</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7015383294485986</v>
+        <v>0.7074363999957199</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>223</v>
@@ -4224,19 +4224,19 @@
         <v>237798</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>218228</v>
+        <v>219354</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>255495</v>
+        <v>256529</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6381562845147921</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5856388512660679</v>
+        <v>0.5886587704056243</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6856487494378044</v>
+        <v>0.6884226896223455</v>
       </c>
     </row>
     <row r="21">
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5034</v>
+        <v>4769</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0114570541684645</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06155593362514856</v>
+        <v>0.05830725528861927</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -4396,19 +4396,19 @@
         <v>3005</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7396</v>
+        <v>7984</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02942356870367141</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.008961466182284002</v>
+        <v>0.009116167848081067</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07240471830014582</v>
+        <v>0.07816259945322948</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -4417,19 +4417,19 @@
         <v>3942</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>974</v>
+        <v>1015</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9941</v>
+        <v>9356</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02143474323384913</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005294148622058708</v>
+        <v>0.005516294496260872</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05404869649881722</v>
+        <v>0.05086660349954687</v>
       </c>
     </row>
     <row r="24">
@@ -4446,19 +4446,19 @@
         <v>7241</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3005</v>
+        <v>3048</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14842</v>
+        <v>15262</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08853845756986443</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03674080625291783</v>
+        <v>0.03726710814943013</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.181472497554225</v>
+        <v>0.1866086121851037</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -4467,19 +4467,19 @@
         <v>3124</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9340</v>
+        <v>8732</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03057883706396568</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009686395080848623</v>
+        <v>0.009745131523447696</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09144079512749476</v>
+        <v>0.08548754501969288</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -4488,19 +4488,19 @@
         <v>10365</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5172</v>
+        <v>5212</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>19535</v>
+        <v>19820</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05635063000752256</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02812001312984021</v>
+        <v>0.02833834917345173</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1062114600074633</v>
+        <v>0.1077578528451863</v>
       </c>
     </row>
     <row r="25">
@@ -4517,19 +4517,19 @@
         <v>19445</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12592</v>
+        <v>12583</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28227</v>
+        <v>29105</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2377586024957525</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1539672735717603</v>
+        <v>0.1538549081662846</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3451339491604695</v>
+        <v>0.3558746337514087</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -4538,19 +4538,19 @@
         <v>29731</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21074</v>
+        <v>21151</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40336</v>
+        <v>39831</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.291068246546699</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2063085736680626</v>
+        <v>0.2070689870200514</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3948894070830429</v>
+        <v>0.3899371781729866</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -4559,19 +4559,19 @@
         <v>49176</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>37459</v>
+        <v>36856</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>61934</v>
+        <v>61976</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2673640694595511</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2036615768342636</v>
+        <v>0.2003795730406618</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3367270510479402</v>
+        <v>0.33695265511346</v>
       </c>
     </row>
     <row r="26">
@@ -4588,19 +4588,19 @@
         <v>54162</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45683</v>
+        <v>44941</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>62664</v>
+        <v>62792</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6622458857659186</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5585722060005762</v>
+        <v>0.5495014360051497</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7661981410451199</v>
+        <v>0.7677644060546449</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>60</v>
@@ -4609,19 +4609,19 @@
         <v>66286</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>55095</v>
+        <v>56043</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>75329</v>
+        <v>76087</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6489293476856639</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.53937468583967</v>
+        <v>0.548657158648115</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7374651527916843</v>
+        <v>0.7448824076184661</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>111</v>
@@ -4630,19 +4630,19 @@
         <v>120447</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>106771</v>
+        <v>106881</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>133607</v>
+        <v>132823</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6548505572990773</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5804961714776782</v>
+        <v>0.5810971393218463</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7264028024697509</v>
+        <v>0.7221386767950109</v>
       </c>
     </row>
     <row r="27">
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6796</v>
+        <v>7290</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002853131689891996</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.009687237195100902</v>
+        <v>0.01039052248672975</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6148</v>
+        <v>7196</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.001196445058143729</v>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.003674795584453157</v>
+        <v>0.004301300769556363</v>
       </c>
     </row>
     <row r="29">
@@ -4797,19 +4797,19 @@
         <v>3832</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>942</v>
+        <v>960</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8654</v>
+        <v>9410</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.005461662511176786</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001342489428554495</v>
+        <v>0.001368681253165316</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01233532731727431</v>
+        <v>0.01341326372129147</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>14</v>
@@ -4818,19 +4818,19 @@
         <v>15768</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9469</v>
+        <v>9013</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>25270</v>
+        <v>27000</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01623156665095681</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009747098461201932</v>
+        <v>0.00927838383575765</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0260130765955483</v>
+        <v>0.02779414151261407</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>18</v>
@@ -4839,19 +4839,19 @@
         <v>19599</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12416</v>
+        <v>12144</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>31492</v>
+        <v>31868</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01171526667420765</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007421689567314965</v>
+        <v>0.007258983428776534</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01882398089182081</v>
+        <v>0.01904889314532994</v>
       </c>
     </row>
     <row r="30">
@@ -4868,19 +4868,19 @@
         <v>11353</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6076</v>
+        <v>5423</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>21329</v>
+        <v>21391</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01618198343808998</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.008661444422853305</v>
+        <v>0.007730332023313165</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0304022603470243</v>
+        <v>0.03049117091869056</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -4889,19 +4889,19 @@
         <v>14838</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7280</v>
+        <v>8498</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>23781</v>
+        <v>25254</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01527416495136242</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.007494452318350008</v>
+        <v>0.008747733636316242</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02448045103361281</v>
+        <v>0.02599716893755039</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>24</v>
@@ -4910,19 +4910,19 @@
         <v>26190</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>17158</v>
+        <v>16712</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>39138</v>
+        <v>39303</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01565485363320095</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01025590344769505</v>
+        <v>0.009989555677781604</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02339396625202846</v>
+        <v>0.02349257520636694</v>
       </c>
     </row>
     <row r="31">
@@ -4939,19 +4939,19 @@
         <v>245448</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>219988</v>
+        <v>221297</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>270583</v>
+        <v>271967</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3498612672499427</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3135714722439868</v>
+        <v>0.3154373810341669</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3856889287138053</v>
+        <v>0.3876614117429328</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>281</v>
@@ -4960,19 +4960,19 @@
         <v>301094</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>271397</v>
+        <v>270040</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>329993</v>
+        <v>330276</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3099506931614539</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.279379742778517</v>
+        <v>0.2779829928156734</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3396992257248382</v>
+        <v>0.339990962758561</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>508</v>
@@ -4981,19 +4981,19 @@
         <v>546542</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>503357</v>
+        <v>505004</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>585733</v>
+        <v>585368</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.326686972564547</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3008736244793123</v>
+        <v>0.3018585311110417</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3501127998549881</v>
+        <v>0.3498945753575743</v>
       </c>
     </row>
     <row r="32">
@@ -5010,19 +5010,19 @@
         <v>438923</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>412147</v>
+        <v>409359</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>464884</v>
+        <v>461653</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6256419551108985</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5874742549187474</v>
+        <v>0.583500077579252</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6626462305735771</v>
+        <v>0.6580409874234375</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>592</v>
@@ -5031,19 +5031,19 @@
         <v>639727</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>610872</v>
+        <v>609404</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>672010</v>
+        <v>671735</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6585435752362269</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6288402084417176</v>
+        <v>0.6273288529098401</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6917761358746071</v>
+        <v>0.6914932303128097</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1007</v>
@@ -5052,19 +5052,19 @@
         <v>1078651</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1037085</v>
+        <v>1036063</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1120627</v>
+        <v>1119372</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6447464620699006</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6199013421022583</v>
+        <v>0.6192904455179878</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6698372300484012</v>
+        <v>0.6690868893324393</v>
       </c>
     </row>
     <row r="33">
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6636</v>
+        <v>6319</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009346110461360552</v>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03258272493969811</v>
+        <v>0.03102262464128017</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6461</v>
+        <v>6536</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004582213851265633</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02302893196782577</v>
+        <v>0.02329866441345428</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -5441,16 +5441,16 @@
         <v>948</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9004</v>
+        <v>9346</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006586043218126245</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001958236682529369</v>
+        <v>0.001957582297588833</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01859515480226781</v>
+        <v>0.01930044785863953</v>
       </c>
     </row>
     <row r="5">
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5988</v>
+        <v>5363</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005188645550959386</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02939756985142897</v>
+        <v>0.0263321303925071</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -5488,19 +5488,19 @@
         <v>5068</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1840</v>
+        <v>1899</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11822</v>
+        <v>11376</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01806401837470035</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006560551196340712</v>
+        <v>0.006769619666869003</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04214010033985872</v>
+        <v>0.04055212493982098</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -5509,19 +5509,19 @@
         <v>6124</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2171</v>
+        <v>2359</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12447</v>
+        <v>13137</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01264827318014267</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004484179677386966</v>
+        <v>0.004871913456942286</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02570585245172319</v>
+        <v>0.02713021469595707</v>
       </c>
     </row>
     <row r="6">
@@ -5538,19 +5538,19 @@
         <v>7722</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2873</v>
+        <v>3027</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16490</v>
+        <v>16228</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03791257174698021</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01410748945389958</v>
+        <v>0.01486225860698136</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08096048536523627</v>
+        <v>0.07967636035248185</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5807</v>
+        <v>5744</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.004108899139685113</v>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02069880061330302</v>
+        <v>0.02047640095626774</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -5580,19 +5580,19 @@
         <v>8875</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3768</v>
+        <v>4118</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17569</v>
+        <v>18605</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01832767788788509</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007781020433074489</v>
+        <v>0.008504720157239727</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03628367820333852</v>
+        <v>0.03842362135282152</v>
       </c>
     </row>
     <row r="7">
@@ -5609,19 +5609,19 @@
         <v>58058</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44899</v>
+        <v>45675</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71500</v>
+        <v>70892</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2850520132043365</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2204447563600241</v>
+        <v>0.2242550504689756</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3510499017479742</v>
+        <v>0.3480678245271934</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -5630,19 +5630,19 @@
         <v>89814</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74319</v>
+        <v>74915</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>105988</v>
+        <v>106823</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3201460857182662</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2649130584470283</v>
+        <v>0.2670374711733714</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3777997893920439</v>
+        <v>0.3807750775085556</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>140</v>
@@ -5651,19 +5651,19 @@
         <v>147871</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>127853</v>
+        <v>127224</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>169022</v>
+        <v>167284</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3053845283500539</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2640429119195328</v>
+        <v>0.2627433740981384</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3490646589510284</v>
+        <v>0.3454748729104543</v>
       </c>
     </row>
     <row r="8">
@@ -5680,19 +5680,19 @@
         <v>134934</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>120972</v>
+        <v>120814</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>148657</v>
+        <v>147748</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6625006590363633</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5939514030384297</v>
+        <v>0.5931734167969233</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7298768523416038</v>
+        <v>0.7254162514412211</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>167</v>
@@ -5701,19 +5701,19 @@
         <v>183220</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>166540</v>
+        <v>166955</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>199195</v>
+        <v>199261</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6530987829160827</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.593639252430575</v>
+        <v>0.5951201198607833</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.710040335231973</v>
+        <v>0.7102783380656673</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>293</v>
@@ -5722,19 +5722,19 @@
         <v>318154</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>294877</v>
+        <v>298039</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>339888</v>
+        <v>338962</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.657053477363792</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.608979840328375</v>
+        <v>0.6155118352017973</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7019385144733065</v>
+        <v>0.7000257916816118</v>
       </c>
     </row>
     <row r="9">
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6930</v>
+        <v>6323</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01318510978104081</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04692855750192465</v>
+        <v>0.04281769620389796</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -5894,19 +5894,19 @@
         <v>8238</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3144</v>
+        <v>3614</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17184</v>
+        <v>17150</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04180031098790291</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01595275385582234</v>
+        <v>0.01833708803494419</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08719465728631175</v>
+        <v>0.08702508969563863</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -5915,19 +5915,19 @@
         <v>10185</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4591</v>
+        <v>4957</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18584</v>
+        <v>18476</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02954318501926092</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01331799175291897</v>
+        <v>0.01437893750108636</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05390912287698836</v>
+        <v>0.05359357037371969</v>
       </c>
     </row>
     <row r="12">
@@ -5944,19 +5944,19 @@
         <v>6054</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2040</v>
+        <v>1667</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13128</v>
+        <v>12933</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04100028085869182</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01381759716054517</v>
+        <v>0.0112908522237704</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08890231673235216</v>
+        <v>0.0875806632328817</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -5965,19 +5965,19 @@
         <v>6052</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2223</v>
+        <v>2385</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13793</v>
+        <v>14516</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0307100955200226</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01128250755108249</v>
+        <v>0.01210063787738557</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06998820810416076</v>
+        <v>0.07366114506881875</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -5986,19 +5986,19 @@
         <v>12106</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6562</v>
+        <v>5742</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22079</v>
+        <v>21712</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03511782611834861</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01903440190284775</v>
+        <v>0.01665692902426449</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06404550185226653</v>
+        <v>0.06298077377669045</v>
       </c>
     </row>
     <row r="13">
@@ -6015,19 +6015,19 @@
         <v>43291</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33272</v>
+        <v>33445</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55816</v>
+        <v>54639</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2931703878826162</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2253224772491775</v>
+        <v>0.2264913795215624</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.377990533652051</v>
+        <v>0.37001827227622</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -6036,19 +6036,19 @@
         <v>53336</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40729</v>
+        <v>41203</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67585</v>
+        <v>67349</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2706426678946145</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2066697884859271</v>
+        <v>0.209074749901698</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3429462939156224</v>
+        <v>0.3417489445654692</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -6057,19 +6057,19 @@
         <v>96627</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81020</v>
+        <v>81651</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115852</v>
+        <v>114207</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2802922628662904</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2350215620889622</v>
+        <v>0.236850331919652</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.336058906281405</v>
+        <v>0.3312882767308229</v>
       </c>
     </row>
     <row r="14">
@@ -6086,19 +6086,19 @@
         <v>96373</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>83617</v>
+        <v>83821</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>107456</v>
+        <v>107256</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6526442214776512</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5662621751714696</v>
+        <v>0.5676450506777586</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7277027023612819</v>
+        <v>0.726346064952739</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>118</v>
@@ -6107,19 +6107,19 @@
         <v>129445</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>114021</v>
+        <v>115719</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>143495</v>
+        <v>144171</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6568469255974599</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5785792250729839</v>
+        <v>0.5871956533088784</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7281361810661675</v>
+        <v>0.7315698848409288</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>211</v>
@@ -6128,19 +6128,19 @@
         <v>225818</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>207118</v>
+        <v>207234</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>241574</v>
+        <v>243992</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6550467259961</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6008029612755906</v>
+        <v>0.6011391063844118</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7007493507872309</v>
+        <v>0.707765926988819</v>
       </c>
     </row>
     <row r="15">
@@ -6279,19 +6279,19 @@
         <v>4271</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1050</v>
+        <v>1322</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10304</v>
+        <v>11017</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03832657302111105</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009419590744802383</v>
+        <v>0.0118595021022555</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09246479731734218</v>
+        <v>0.09886536747752919</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -6300,19 +6300,19 @@
         <v>7984</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3144</v>
+        <v>3741</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17031</v>
+        <v>15590</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05065398755212987</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01995039783726279</v>
+        <v>0.02373222908106692</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1080513118571159</v>
+        <v>0.09891160219758578</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -6321,19 +6321,19 @@
         <v>12255</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6540</v>
+        <v>6378</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20819</v>
+        <v>21385</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04554823579237746</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02430608825853173</v>
+        <v>0.02370746510110537</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07738168684763143</v>
+        <v>0.07948487133684197</v>
       </c>
     </row>
     <row r="18">
@@ -6350,19 +6350,19 @@
         <v>9461</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4873</v>
+        <v>4525</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19120</v>
+        <v>17504</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08489916222023758</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04373018957232194</v>
+        <v>0.04060604664425832</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1715819183121551</v>
+        <v>0.1570811388458661</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -6371,19 +6371,19 @@
         <v>10610</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5432</v>
+        <v>5821</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18046</v>
+        <v>18824</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06731835701276745</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03446543872047653</v>
+        <v>0.03692866956052502</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1144957468171396</v>
+        <v>0.1194287122595844</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>20</v>
@@ -6392,19 +6392,19 @@
         <v>20071</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12350</v>
+        <v>11689</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>29613</v>
+        <v>29408</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07459995096744776</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04590115542943767</v>
+        <v>0.04344681420774899</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1100640068682078</v>
+        <v>0.1093017637215646</v>
       </c>
     </row>
     <row r="19">
@@ -6421,19 +6421,19 @@
         <v>28276</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19001</v>
+        <v>18755</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38870</v>
+        <v>38615</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2537474693899868</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1705150019700165</v>
+        <v>0.1683080029966743</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3488156353864192</v>
+        <v>0.346526674682831</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -6442,19 +6442,19 @@
         <v>32493</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23688</v>
+        <v>23215</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43438</v>
+        <v>43746</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2061525935484853</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1502898546113113</v>
+        <v>0.1472919096320279</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2755926365671691</v>
+        <v>0.2775507310814766</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>57</v>
@@ -6463,19 +6463,19 @@
         <v>60769</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>47314</v>
+        <v>47659</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>76325</v>
+        <v>76621</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2258653743973386</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1758551228796685</v>
+        <v>0.1771394212643035</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2836853174759044</v>
+        <v>0.2847860735727143</v>
       </c>
     </row>
     <row r="20">
@@ -6492,19 +6492,19 @@
         <v>69426</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>57917</v>
+        <v>56451</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>79807</v>
+        <v>79281</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6230267953686646</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.519742232580949</v>
+        <v>0.5065848747116569</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7161796380542992</v>
+        <v>0.7114579766916111</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>100</v>
@@ -6513,19 +6513,19 @@
         <v>106528</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>93176</v>
+        <v>93869</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>116854</v>
+        <v>117741</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6758750618866174</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5911642133168223</v>
+        <v>0.5955583495480287</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7413867182691628</v>
+        <v>0.7470153226112003</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>165</v>
@@ -6534,19 +6534,19 @@
         <v>175954</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>160356</v>
+        <v>158951</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>191821</v>
+        <v>191756</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6539864388428361</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5960106380527993</v>
+        <v>0.5907873285416306</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7129601840911974</v>
+        <v>0.7127160504272431</v>
       </c>
     </row>
     <row r="21">
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5827</v>
+        <v>6037</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02024153204348884</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06868056677464597</v>
+        <v>0.07116471560511005</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5432</v>
+        <v>5608</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008657986825788321</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04970921867314591</v>
+        <v>0.05132314754304981</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -6680,19 +6680,19 @@
         <v>2663</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>806</v>
+        <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7319</v>
+        <v>7196</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01372062589994523</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00415461212905392</v>
+        <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03770436670541305</v>
+        <v>0.03707436404291481</v>
       </c>
     </row>
     <row r="23">
@@ -6709,19 +6709,19 @@
         <v>2810</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>775</v>
+        <v>815</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8595</v>
+        <v>8037</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03311845509767727</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009137716354782211</v>
+        <v>0.009601299374586564</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1013086647136204</v>
+        <v>0.09473124941789743</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -6730,19 +6730,19 @@
         <v>7502</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2702</v>
+        <v>2823</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16631</v>
+        <v>15104</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06864997292347179</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02472893423333091</v>
+        <v>0.02583523010359235</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1521987509671897</v>
+        <v>0.1382261411413957</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -6751,19 +6751,19 @@
         <v>10311</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5010</v>
+        <v>4900</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>18867</v>
+        <v>19160</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05312076773384683</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02581290775025243</v>
+        <v>0.02524417355241487</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0972000197071741</v>
+        <v>0.09870796665767448</v>
       </c>
     </row>
     <row r="24">
@@ -6780,19 +6780,19 @@
         <v>3046</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>902</v>
+        <v>881</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8556</v>
+        <v>8201</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03590870403478519</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01063115710174409</v>
+        <v>0.01038451420285907</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1008549729890925</v>
+        <v>0.09666768913576085</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -6801,19 +6801,19 @@
         <v>5553</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2057</v>
+        <v>2062</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12441</v>
+        <v>12546</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0508212306642415</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01882412522539808</v>
+        <v>0.01887419860789918</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1138573878497646</v>
+        <v>0.114810926863885</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -6822,19 +6822,19 @@
         <v>8600</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4024</v>
+        <v>4002</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16557</v>
+        <v>16276</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04430364571163767</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0207314498540477</v>
+        <v>0.02061718087814694</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08529901591490031</v>
+        <v>0.08385245074344519</v>
       </c>
     </row>
     <row r="25">
@@ -6851,19 +6851,19 @@
         <v>10556</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5528</v>
+        <v>5249</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18835</v>
+        <v>19242</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1244266394681193</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06515573297535097</v>
+        <v>0.06186845077550519</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2220153665718963</v>
+        <v>0.2268121524147921</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -6872,19 +6872,19 @@
         <v>28498</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19901</v>
+        <v>19892</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38809</v>
+        <v>38646</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2607955511405617</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.182122787486791</v>
+        <v>0.1820442917397454</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3551581372006622</v>
+        <v>0.353668029148611</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>37</v>
@@ -6893,19 +6893,19 @@
         <v>39054</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>29490</v>
+        <v>28497</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>52295</v>
+        <v>52440</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2011949221657468</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1519277098627923</v>
+        <v>0.1468118732384269</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2694136714752781</v>
+        <v>0.270159224331591</v>
       </c>
     </row>
     <row r="26">
@@ -6922,19 +6922,19 @@
         <v>66707</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>57512</v>
+        <v>57948</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>73105</v>
+        <v>73746</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7863046693559294</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6779151683651199</v>
+        <v>0.6830645999469861</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8617179186137486</v>
+        <v>0.8692737666112882</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>63</v>
@@ -6943,19 +6943,19 @@
         <v>66773</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>55961</v>
+        <v>55790</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>77095</v>
+        <v>76360</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6110752584459367</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5121214317689995</v>
+        <v>0.5105617669045314</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7055338055310202</v>
+        <v>0.6988073007216329</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>124</v>
@@ -6964,19 +6964,19 @@
         <v>133480</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>119285</v>
+        <v>118473</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>145687</v>
+        <v>146752</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6876600384888234</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6145295742532016</v>
+        <v>0.610348138396678</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7505470617947263</v>
+        <v>0.7560343727105866</v>
       </c>
     </row>
     <row r="27">
@@ -7068,19 +7068,19 @@
         <v>3621</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8407</v>
+        <v>9196</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006611946328058183</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001703163460709046</v>
+        <v>0.001715631759331882</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01535235962756377</v>
+        <v>0.01679347186089042</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7223</v>
+        <v>7713</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.002997418540132124</v>
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.009702493441824112</v>
+        <v>0.01035960866684926</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -7110,19 +7110,19 @@
         <v>5852</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1884</v>
+        <v>2242</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12678</v>
+        <v>13188</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.004529296075392346</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001457893480205566</v>
+        <v>0.001735396442380518</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.00981197757055036</v>
+        <v>0.0102063784378054</v>
       </c>
     </row>
     <row r="29">
@@ -7139,19 +7139,19 @@
         <v>10084</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5004</v>
+        <v>5119</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17560</v>
+        <v>19174</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01841514181055704</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.009138237682620313</v>
+        <v>0.009347583924392522</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03206668047557317</v>
+        <v>0.0350148974937748</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>25</v>
@@ -7160,19 +7160,19 @@
         <v>28791</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>20085</v>
+        <v>18739</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>42725</v>
+        <v>43239</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03867124850355459</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02697814941923542</v>
+        <v>0.02516960647757316</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.057387953514309</v>
+        <v>0.05807794026925145</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>35</v>
@@ -7181,19 +7181,19 @@
         <v>38875</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>27557</v>
+        <v>26309</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>53531</v>
+        <v>52843</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03008648263220367</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02132721754054228</v>
+        <v>0.02036095955120956</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04142936049542095</v>
+        <v>0.04089659075430865</v>
       </c>
     </row>
     <row r="30">
@@ -7210,19 +7210,19 @@
         <v>26283</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18011</v>
+        <v>16956</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>39183</v>
+        <v>38769</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0479961714871315</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03288977957742153</v>
+        <v>0.0309628552119212</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07155277951081719</v>
+        <v>0.07079698540109955</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>22</v>
@@ -7231,19 +7231,19 @@
         <v>23368</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>15216</v>
+        <v>14844</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>34917</v>
+        <v>34126</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03138827428310619</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02043821523224584</v>
+        <v>0.01993889456764947</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04690058870794962</v>
+        <v>0.04583744062797383</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>45</v>
@@ -7252,19 +7252,19 @@
         <v>49652</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>36706</v>
+        <v>36957</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>66124</v>
+        <v>67016</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03842688793541818</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02840825019347687</v>
+        <v>0.02860204947016908</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05117507089262601</v>
+        <v>0.05186603901088529</v>
       </c>
     </row>
     <row r="31">
@@ -7281,19 +7281,19 @@
         <v>140181</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>117647</v>
+        <v>118543</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>160729</v>
+        <v>162124</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2559868171943526</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2148384578482525</v>
+        <v>0.2164746170301499</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2935104102338248</v>
+        <v>0.2960582027661787</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>195</v>
@@ -7302,19 +7302,19 @@
         <v>204140</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>181121</v>
+        <v>178914</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>230441</v>
+        <v>227616</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2741981732397147</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2432803475642043</v>
+        <v>0.2403154170546817</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3095262963730252</v>
+        <v>0.3057313233457069</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>326</v>
@@ -7323,19 +7323,19 @@
         <v>344321</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>312631</v>
+        <v>310410</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>376974</v>
+        <v>379394</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2664799956936174</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2419542552615525</v>
+        <v>0.2402358041231551</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2917514503642528</v>
+        <v>0.2936244179010072</v>
       </c>
     </row>
     <row r="32">
@@ -7352,19 +7352,19 @@
         <v>367440</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>345749</v>
+        <v>343963</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>391256</v>
+        <v>389826</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6709899231799007</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6313791548697171</v>
+        <v>0.6281180467799615</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.714479743819538</v>
+        <v>0.711869623919537</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>448</v>
@@ -7373,19 +7373,19 @@
         <v>485967</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>459421</v>
+        <v>460873</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>511818</v>
+        <v>515363</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6527448854334923</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6170894901314016</v>
+        <v>0.6190397161742843</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6874679519546837</v>
+        <v>0.6922302886602304</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>793</v>
@@ -7394,19 +7394,19 @@
         <v>853407</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>821367</v>
+        <v>815434</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>891047</v>
+        <v>887925</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6604773376633684</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.635680527683264</v>
+        <v>0.6310888650984343</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6896078341313788</v>
+        <v>0.6871916508787659</v>
       </c>
     </row>
     <row r="33">
@@ -7741,16 +7741,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4783</v>
+        <v>5673</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.007586015426165242</v>
+        <v>0.007586015426165243</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.038762050059118</v>
+        <v>0.04597357055772603</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -7775,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4727</v>
+        <v>4197</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002965167448474396</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.014974364471051</v>
+        <v>0.01329557291560993</v>
       </c>
     </row>
     <row r="5">
@@ -7804,16 +7804,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5995</v>
+        <v>5709</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.009374777342046824</v>
+        <v>0.009374777342046826</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04858190905101734</v>
+        <v>0.04627115549688402</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -7822,19 +7822,19 @@
         <v>7842</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3414</v>
+        <v>3168</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15417</v>
+        <v>16924</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.04078443870636517</v>
+        <v>0.04078443870636518</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0177549224823025</v>
+        <v>0.01647464305325864</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08017549113383937</v>
+        <v>0.08801549093979906</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -7843,19 +7843,19 @@
         <v>8999</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4293</v>
+        <v>4335</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17510</v>
+        <v>17172</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02850725493952954</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01359830202794956</v>
+        <v>0.0137333113555293</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05546792584883763</v>
+        <v>0.05439647729846009</v>
       </c>
     </row>
     <row r="6">
@@ -7885,19 +7885,19 @@
         <v>4745</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2136</v>
+        <v>2073</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9701</v>
+        <v>9116</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02467804182161427</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01110815039546984</v>
+        <v>0.0107782446797158</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05044937443390837</v>
+        <v>0.04741039923123025</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -7906,19 +7906,19 @@
         <v>4745</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2167</v>
+        <v>2055</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9049</v>
+        <v>8896</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01503206535165468</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006863879304170098</v>
+        <v>0.006509511743021651</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02866567478715921</v>
+        <v>0.02818152520763648</v>
       </c>
     </row>
     <row r="7">
@@ -7935,19 +7935,19 @@
         <v>23462</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15406</v>
+        <v>15957</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34334</v>
+        <v>34483</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1901464133182316</v>
+        <v>0.1901464133182317</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1248595621756089</v>
+        <v>0.1293205866036623</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2782520200441619</v>
+        <v>0.2794650427933555</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -7956,19 +7956,19 @@
         <v>33146</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25631</v>
+        <v>25141</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44055</v>
+        <v>44153</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1723781114027637</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1332915911298385</v>
+        <v>0.1307439779137704</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2291090960194619</v>
+        <v>0.2296160614847938</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -7977,19 +7977,19 @@
         <v>56609</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45959</v>
+        <v>43781</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71931</v>
+        <v>70714</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1793232581622456</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1455879876950193</v>
+        <v>0.1386873162132006</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2278614694765916</v>
+        <v>0.2240046883937856</v>
       </c>
     </row>
     <row r="8">
@@ -8006,19 +8006,19 @@
         <v>97835</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86637</v>
+        <v>86649</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>106167</v>
+        <v>105768</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7928927939135564</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7021426965397854</v>
+        <v>0.702235748704046</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8604188912175167</v>
+        <v>0.8571836446430826</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>211</v>
@@ -8027,19 +8027,19 @@
         <v>146555</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>135501</v>
+        <v>134854</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>155740</v>
+        <v>155869</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7621594080692567</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7046748554806289</v>
+        <v>0.701310197728144</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8099282894319734</v>
+        <v>0.8105994051405095</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>308</v>
@@ -8048,19 +8048,19 @@
         <v>244390</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>228609</v>
+        <v>228341</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>256806</v>
+        <v>258508</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7741722540980958</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7241822863364227</v>
+        <v>0.723334029062158</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8135033630046671</v>
+        <v>0.8188954100367827</v>
       </c>
     </row>
     <row r="9">
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5982</v>
+        <v>6566</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006730462326034581</v>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03523555943014407</v>
+        <v>0.03867866175989924</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -8173,19 +8173,19 @@
         <v>2616</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6773</v>
+        <v>7663</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01025874028086009</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002829709027573533</v>
+        <v>0.002788223076180302</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02655519119190896</v>
+        <v>0.03004619665186741</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -8194,19 +8194,19 @@
         <v>3759</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>753</v>
+        <v>1137</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8769</v>
+        <v>9668</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00884877931941682</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001773510755230644</v>
+        <v>0.002676400882843265</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02064300027955708</v>
+        <v>0.02275888625494878</v>
       </c>
     </row>
     <row r="11">
@@ -8236,19 +8236,19 @@
         <v>4589</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1936</v>
+        <v>1735</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10024</v>
+        <v>9251</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01799128337884676</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007591718027769817</v>
+        <v>0.00680365499464826</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03930430291344032</v>
+        <v>0.0362732059625483</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -8257,19 +8257,19 @@
         <v>4589</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10490</v>
+        <v>10106</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01080165502891942</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004511009259657316</v>
+        <v>0.004513457079363454</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0246929324423334</v>
+        <v>0.02378935077285655</v>
       </c>
     </row>
     <row r="12">
@@ -8286,19 +8286,19 @@
         <v>2427</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6754</v>
+        <v>7787</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01429908941022026</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003394994989482501</v>
+        <v>0.003595249862252316</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03978364386382446</v>
+        <v>0.04587367632285498</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -8307,19 +8307,19 @@
         <v>8748</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4484</v>
+        <v>4330</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16139</v>
+        <v>15617</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03429811556673355</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01758153498065531</v>
+        <v>0.01697589705635676</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06327867969074212</v>
+        <v>0.06123257752112265</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -8328,19 +8328,19 @@
         <v>11175</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6434</v>
+        <v>6104</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18398</v>
+        <v>19161</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02630615843960264</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01514478174505474</v>
+        <v>0.01436925145931715</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04330844718272293</v>
+        <v>0.04510499548963883</v>
       </c>
     </row>
     <row r="13">
@@ -8357,19 +8357,19 @@
         <v>32863</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21972</v>
+        <v>22697</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46174</v>
+        <v>45963</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1935841185369266</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1294325325259802</v>
+        <v>0.1337012062071508</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2720002793312256</v>
+        <v>0.2707564444010044</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>79</v>
@@ -8378,19 +8378,19 @@
         <v>51283</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40968</v>
+        <v>41471</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61977</v>
+        <v>62439</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2010739475643802</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1606302332874688</v>
+        <v>0.1626003769781322</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2430034689897679</v>
+        <v>0.2448153752436396</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>109</v>
@@ -8399,19 +8399,19 @@
         <v>84146</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>69403</v>
+        <v>69424</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>102368</v>
+        <v>100232</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1980808822016722</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1633750518132559</v>
+        <v>0.1634247343920625</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2409770319124627</v>
+        <v>0.2359480293255878</v>
       </c>
     </row>
     <row r="14">
@@ -8428,19 +8428,19 @@
         <v>133326</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>119910</v>
+        <v>120458</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>144694</v>
+        <v>143977</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7853863297268185</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7063533173337029</v>
+        <v>0.7095799043794191</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8523508308388976</v>
+        <v>0.8481283843101921</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>282</v>
@@ -8449,19 +8449,19 @@
         <v>187810</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>175367</v>
+        <v>176190</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>199560</v>
+        <v>199196</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7363779132091793</v>
+        <v>0.7363779132091794</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6875912397072506</v>
+        <v>0.6908159634380541</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7824456318136773</v>
+        <v>0.7810213964781675</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>418</v>
@@ -8470,19 +8470,19 @@
         <v>321137</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>304906</v>
+        <v>304611</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>337721</v>
+        <v>337769</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7559625250103887</v>
+        <v>0.7559625250103889</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7177553370092045</v>
+        <v>0.7170606149390196</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7950024653867919</v>
+        <v>0.7951145538364369</v>
       </c>
     </row>
     <row r="15">
@@ -8574,19 +8574,19 @@
         <v>2794</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7716</v>
+        <v>7562</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01407384079219148</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004228266575962864</v>
+        <v>0.004209837530534102</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03886183378108719</v>
+        <v>0.03808290431002592</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4834</v>
+        <v>5131</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005104757328819226</v>
@@ -8607,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01820232683085483</v>
+        <v>0.01932152178687967</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -8616,19 +8616,19 @@
         <v>4150</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1541</v>
+        <v>1518</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9883</v>
+        <v>9120</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008941720767087637</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003321055204465131</v>
+        <v>0.00326970494237717</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02129253889367749</v>
+        <v>0.01964912666133921</v>
       </c>
     </row>
     <row r="17">
@@ -8645,19 +8645,19 @@
         <v>6736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2857</v>
+        <v>2924</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13116</v>
+        <v>13877</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0339237993765617</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01438624230420225</v>
+        <v>0.01472412498388109</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06605700869573537</v>
+        <v>0.06988890035641097</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -8666,19 +8666,19 @@
         <v>10175</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5635</v>
+        <v>5802</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17511</v>
+        <v>17488</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03831278572460864</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02121912026908587</v>
+        <v>0.02184504619677212</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06593319563035413</v>
+        <v>0.06584969050656331</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -8687,19 +8687,19 @@
         <v>16911</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10624</v>
+        <v>10095</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26840</v>
+        <v>25958</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03643518248707744</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0228893637919605</v>
+        <v>0.02175011737070386</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05782704515855261</v>
+        <v>0.05592791817391168</v>
       </c>
     </row>
     <row r="18">
@@ -8716,19 +8716,19 @@
         <v>5838</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2755</v>
+        <v>2044</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12141</v>
+        <v>11323</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02940360955011491</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01387319236007881</v>
+        <v>0.0102931062104573</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0611478465638085</v>
+        <v>0.05702703676517902</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -8737,19 +8737,19 @@
         <v>7142</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3515</v>
+        <v>3415</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12911</v>
+        <v>12736</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02689124878421196</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01323629256181986</v>
+        <v>0.01285816762513487</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04861324086983291</v>
+        <v>0.04795535013124582</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>17</v>
@@ -8758,19 +8758,19 @@
         <v>12980</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7855</v>
+        <v>7720</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>20432</v>
+        <v>21410</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.02796603378781646</v>
+        <v>0.02796603378781647</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01692422951167165</v>
+        <v>0.01663377451825205</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0440204021491291</v>
+        <v>0.04612835867487114</v>
       </c>
     </row>
     <row r="19">
@@ -8787,19 +8787,19 @@
         <v>51131</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38736</v>
+        <v>38635</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66158</v>
+        <v>67020</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2575103739572157</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1950868497799477</v>
+        <v>0.1945766487842422</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3331916807956127</v>
+        <v>0.337535139047355</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -8808,19 +8808,19 @@
         <v>69787</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57116</v>
+        <v>56673</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>83711</v>
+        <v>84120</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2627709772346796</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2150600795379352</v>
+        <v>0.2133931174585818</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.315197933764298</v>
+        <v>0.3167382770709916</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>134</v>
@@ -8829,19 +8829,19 @@
         <v>120918</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>102540</v>
+        <v>102884</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>141024</v>
+        <v>140152</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2605204972919637</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2209249540344695</v>
+        <v>0.221667361369124</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3038395530697946</v>
+        <v>0.3019615913889904</v>
       </c>
     </row>
     <row r="20">
@@ -8858,19 +8858,19 @@
         <v>132059</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>116078</v>
+        <v>116470</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>145650</v>
+        <v>145986</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6650883763239163</v>
+        <v>0.6650883763239162</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5846070962933559</v>
+        <v>0.5865814653109122</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7335368659547532</v>
+        <v>0.7352311609526855</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>263</v>
@@ -8879,19 +8879,19 @@
         <v>177121</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>162955</v>
+        <v>161857</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>190800</v>
+        <v>190639</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6669202309276805</v>
+        <v>0.6669202309276804</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6135802788333589</v>
+        <v>0.60944518671646</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7184235959983435</v>
+        <v>0.7178169643110298</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>395</v>
@@ -8900,19 +8900,19 @@
         <v>309180</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>289121</v>
+        <v>287934</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>329514</v>
+        <v>328727</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6661365656660546</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6229189863094096</v>
+        <v>0.6203608218362741</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7099466446149857</v>
+        <v>0.7082513321987672</v>
       </c>
     </row>
     <row r="21">
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4146</v>
+        <v>3698</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00353856122969372</v>
@@ -9016,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01790326097739578</v>
+        <v>0.01596988865994381</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -9041,16 +9041,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4205</v>
+        <v>4362</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.001862532845019735</v>
+        <v>0.001862532845019734</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009558819783426202</v>
+        <v>0.009915005307985749</v>
       </c>
     </row>
     <row r="23">
@@ -9067,19 +9067,19 @@
         <v>11446</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5934</v>
+        <v>6192</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20155</v>
+        <v>20021</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04942550726052167</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02562384676271171</v>
+        <v>0.02673863473745749</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08703273163674143</v>
+        <v>0.08645546841716238</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -9088,19 +9088,19 @@
         <v>9285</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5295</v>
+        <v>5528</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14983</v>
+        <v>15694</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.04455775497593922</v>
+        <v>0.04455775497593921</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02541189462119554</v>
+        <v>0.02652745254061963</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07190117668614378</v>
+        <v>0.07531348873480215</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>27</v>
@@ -9109,19 +9109,19 @@
         <v>20731</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12676</v>
+        <v>13975</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>29542</v>
+        <v>29190</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.04711991171788697</v>
+        <v>0.04711991171788696</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02881191867682291</v>
+        <v>0.03176355703995894</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06714713567020873</v>
+        <v>0.06634606298009205</v>
       </c>
     </row>
     <row r="24">
@@ -9138,19 +9138,19 @@
         <v>26469</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17431</v>
+        <v>16862</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>41251</v>
+        <v>41461</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.114300375334977</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07527304711082905</v>
+        <v>0.07281681204013411</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1781339218569155</v>
+        <v>0.1790391952922013</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>20</v>
@@ -9159,19 +9159,19 @@
         <v>19195</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11667</v>
+        <v>12125</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>29223</v>
+        <v>31479</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.09211495057085484</v>
+        <v>0.09211495057085482</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05598885379096954</v>
+        <v>0.05818644478598261</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1402378229307521</v>
+        <v>0.1510615283356857</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>42</v>
@@ -9180,19 +9180,19 @@
         <v>45664</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>32990</v>
+        <v>33759</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>61973</v>
+        <v>64182</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1037923187500875</v>
+        <v>0.1037923187500874</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.074983012949385</v>
+        <v>0.07673110810255701</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1408602083978106</v>
+        <v>0.1458818588829201</v>
       </c>
     </row>
     <row r="25">
@@ -9209,19 +9209,19 @@
         <v>30406</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20189</v>
+        <v>20024</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44934</v>
+        <v>46178</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1313011804948815</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08718094411360583</v>
+        <v>0.08647061152688326</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.19403828341546</v>
+        <v>0.1994113094650372</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -9230,19 +9230,19 @@
         <v>26697</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19282</v>
+        <v>19046</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35072</v>
+        <v>35302</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1281147154541548</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09253130403750819</v>
+        <v>0.0913965523350637</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1683062149953033</v>
+        <v>0.1694063320975287</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>65</v>
@@ -9251,19 +9251,19 @@
         <v>57103</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>43829</v>
+        <v>44274</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>73181</v>
+        <v>75817</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1297919213614761</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09962119368116056</v>
+        <v>0.1006308685758413</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1663366456862455</v>
+        <v>0.17232635980119</v>
       </c>
     </row>
     <row r="26">
@@ -9280,19 +9280,19 @@
         <v>162434</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>144104</v>
+        <v>143886</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>177252</v>
+        <v>178024</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7014343756799262</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6222815626255478</v>
+        <v>0.6213401071215657</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7654219307513442</v>
+        <v>0.7687552194746412</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>190</v>
@@ -9301,19 +9301,19 @@
         <v>153207</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>141411</v>
+        <v>139417</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>164739</v>
+        <v>164344</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7352125789990511</v>
+        <v>0.7352125789990512</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6786051508808336</v>
+        <v>0.6690337770007302</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7905534965385702</v>
+        <v>0.7886553419830979</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>333</v>
@@ -9322,19 +9322,19 @@
         <v>315642</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>293316</v>
+        <v>292764</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>334614</v>
+        <v>335916</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7174333153255298</v>
+        <v>0.7174333153255297</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6666876613261074</v>
+        <v>0.6654326219856029</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7605566009250307</v>
+        <v>0.7635140416416806</v>
       </c>
     </row>
     <row r="27">
@@ -9426,19 +9426,19 @@
         <v>5693</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1924</v>
+        <v>2178</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11758</v>
+        <v>11983</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007870394563253181</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002659769447429109</v>
+        <v>0.003011895169899892</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0162568311802858</v>
+        <v>0.01656779165782968</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -9447,19 +9447,19 @@
         <v>3972</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1356</v>
+        <v>1379</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9275</v>
+        <v>9325</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.004311483997033286</v>
+        <v>0.004311483997033285</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001471395671900276</v>
+        <v>0.001496538985112811</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01006715856399027</v>
+        <v>0.0101210285064516</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>11</v>
@@ -9468,19 +9468,19 @@
         <v>9665</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4994</v>
+        <v>4899</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>17077</v>
+        <v>17152</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.005876681168258447</v>
+        <v>0.005876681168258446</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003036680053482097</v>
+        <v>0.002978602996785161</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01038382341689652</v>
+        <v>0.01042954731757071</v>
       </c>
     </row>
     <row r="29">
@@ -9497,19 +9497,19 @@
         <v>19338</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11447</v>
+        <v>11379</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>30177</v>
+        <v>29379</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0267368317757653</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01582662398315226</v>
+        <v>0.01573208051640693</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04172243034564589</v>
+        <v>0.04061948837618846</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>43</v>
@@ -9518,19 +9518,19 @@
         <v>31891</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23557</v>
+        <v>22715</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>44404</v>
+        <v>42911</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.03461553527443093</v>
+        <v>0.03461553527443092</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0255697304005703</v>
+        <v>0.02465585237226782</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04819672498900622</v>
+        <v>0.04657655010810783</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>63</v>
@@ -9539,19 +9539,19 @@
         <v>51230</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>39330</v>
+        <v>39436</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>66448</v>
+        <v>65669</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03115050736783438</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02391465912376327</v>
+        <v>0.02397914298408085</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04040418075845577</v>
+        <v>0.03993048365860724</v>
       </c>
     </row>
     <row r="30">
@@ -9568,19 +9568,19 @@
         <v>34735</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22621</v>
+        <v>23921</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>50244</v>
+        <v>52325</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04802378286986746</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03127553196890046</v>
+        <v>0.03307273938563404</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06946728326680106</v>
+        <v>0.07234377146849297</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>49</v>
@@ -9589,19 +9589,19 @@
         <v>39830</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>29920</v>
+        <v>28961</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>54550</v>
+        <v>53894</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04323248092615271</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0324755910464047</v>
+        <v>0.0314350334898864</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05920944145245185</v>
+        <v>0.05849799552097482</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>81</v>
@@ -9610,19 +9610,19 @@
         <v>74565</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>59611</v>
+        <v>57549</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>95157</v>
+        <v>92622</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04533967977514018</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03624694289948469</v>
+        <v>0.03499307753535467</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05786077591649858</v>
+        <v>0.056319243089138</v>
       </c>
     </row>
     <row r="31">
@@ -9639,19 +9639,19 @@
         <v>137862</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>115219</v>
+        <v>115622</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>161316</v>
+        <v>162504</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1906057217090696</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1592998510341824</v>
+        <v>0.1598579067234202</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2230328003334411</v>
+        <v>0.2246755759656098</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>253</v>
@@ -9660,19 +9660,19 @@
         <v>180914</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>159930</v>
+        <v>160026</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>203482</v>
+        <v>201730</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1963675803267532</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1735919072926847</v>
+        <v>0.1736957481887252</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2208632938597977</v>
+        <v>0.2189621613007898</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>375</v>
@@ -9681,19 +9681,19 @@
         <v>318775</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>287302</v>
+        <v>284873</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>354116</v>
+        <v>349812</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1938335338421357</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1746957816292046</v>
+        <v>0.1732190416935216</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2153229422283688</v>
+        <v>0.2127057340824262</v>
       </c>
     </row>
     <row r="32">
@@ -9710,19 +9710,19 @@
         <v>525655</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>498944</v>
+        <v>498587</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>551830</v>
+        <v>552733</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7267632690820446</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6898339005712677</v>
+        <v>0.6893392975761865</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7629532495357916</v>
+        <v>0.7642007453232229</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>946</v>
@@ -9731,19 +9731,19 @@
         <v>664694</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>639301</v>
+        <v>640084</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>689552</v>
+        <v>687502</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7214729194756297</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6939105746572078</v>
+        <v>0.6947612838239096</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7484545526853434</v>
+        <v>0.7462300474641939</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1454</v>
@@ -9752,19 +9752,19 @@
         <v>1190349</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1149801</v>
+        <v>1157574</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1226933</v>
+        <v>1227572</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7237995978466312</v>
+        <v>0.7237995978466311</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6991442178169346</v>
+        <v>0.7038710937098261</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7460450659436771</v>
+        <v>0.7464337788445221</v>
       </c>
     </row>
     <row r="33">
